--- a/protected_species_list _v1.0(TBN).xlsx
+++ b/protected_species_list _v1.0(TBN).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="欄位說明" sheetId="2" r:id="rId1"/>
@@ -2388,10 +2388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Version_1080109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tp_tid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2416,6 +2412,10 @@
   </si>
   <si>
     <t>保育等級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2943,8 +2943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2978,15 +2978,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B4" t="s">
         <v>769</v>
-      </c>
-      <c r="B4" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="B5" t="s">
         <v>753</v>
@@ -2994,15 +2994,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="B6" t="s">
         <v>764</v>
-      </c>
-      <c r="B6" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B8" t="s">
         <v>750</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B9" t="s">
         <v>751</v>
@@ -3059,8 +3059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
